--- a/Assets/Resources/CSV.data/WaveStat.xlsx
+++ b/Assets/Resources/CSV.data/WaveStat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Brotatos\Assets\Resources\CSV.data\StatInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Brotatos\Assets\Resources\CSV.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>최대 몬스터 스폰 수</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -34,6 +34,10 @@
   </si>
   <si>
     <t>웨이브 당 나무 스탯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스폰 시간</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -974,22 +978,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="17.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,149 +1002,182 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>30</v>
+        <v>0.85</v>
       </c>
       <c r="D2" s="2">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>35</v>
+        <v>0.85</v>
       </c>
       <c r="D3" s="2">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>40</v>
+        <v>0.7</v>
       </c>
       <c r="D4" s="2">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
+        <v>100</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D7" s="2">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>100</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D8" s="2">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>100</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D9" s="2">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>100</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="2">
         <v>70</v>
       </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="E10" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>70</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>75</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>55</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>80</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>55</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>85</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>90</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>60</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>100</v>
       </c>
       <c r="B11" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="2">
         <v>70</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>1.5</v>
       </c>
     </row>

--- a/Assets/Resources/CSV.data/WaveStat.xlsx
+++ b/Assets/Resources/CSV.data/WaveStat.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>최대 몬스터 스폰 수</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -39,6 +39,71 @@
   <si>
     <t>스폰 시간</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이브</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 웨이브</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 웨이브</t>
+  </si>
+  <si>
+    <t>3 웨이브</t>
+  </si>
+  <si>
+    <t>4 웨이브</t>
+  </si>
+  <si>
+    <t>5 웨이브</t>
+  </si>
+  <si>
+    <t>6 웨이브</t>
+  </si>
+  <si>
+    <t>7 웨이브</t>
+  </si>
+  <si>
+    <t>8 웨이브</t>
+  </si>
+  <si>
+    <t>9 웨이브</t>
+  </si>
+  <si>
+    <t>10 웨이브</t>
+  </si>
+  <si>
+    <t>11 웨이브</t>
+  </si>
+  <si>
+    <t>12 웨이브</t>
+  </si>
+  <si>
+    <t>13 웨이브</t>
+  </si>
+  <si>
+    <t>14 웨이브</t>
+  </si>
+  <si>
+    <t>15 웨이브</t>
+  </si>
+  <si>
+    <t>16 웨이브</t>
+  </si>
+  <si>
+    <t>17 웨이브</t>
+  </si>
+  <si>
+    <t>18 웨이브</t>
+  </si>
+  <si>
+    <t>19 웨이브</t>
+  </si>
+  <si>
+    <t>20 웨이브</t>
   </si>
 </sst>
 </file>
@@ -978,206 +1043,439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="17.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>100</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.85</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>45</v>
       </c>
-      <c r="E2" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>100</v>
+      <c r="F2" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.85</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>45</v>
       </c>
-      <c r="E3" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>100</v>
+      <c r="F3" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>55</v>
       </c>
-      <c r="E4" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>100</v>
+      <c r="F4" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>55</v>
       </c>
-      <c r="E5" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>100</v>
+      <c r="F5" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>55</v>
       </c>
-      <c r="E6" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>100</v>
+      <c r="F6" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.65</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>65</v>
       </c>
-      <c r="E7" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>100</v>
+      <c r="F7" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.65</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>65</v>
       </c>
-      <c r="E8" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>100</v>
+      <c r="F8" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
         <v>0.65</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>65</v>
       </c>
-      <c r="E9" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>100</v>
+      <c r="F9" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.6</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>70</v>
       </c>
-      <c r="E10" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>100</v>
+      <c r="F10" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.6</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>70</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>100</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>70</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>70</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>70</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>100</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E16" s="2">
+        <v>70</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>70</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>100</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="2">
+        <v>70</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2">
+        <v>100</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="2">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
+        <v>100</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E20" s="2">
+        <v>70</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <v>100</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>70</v>
+      </c>
+      <c r="F21" s="2">
         <v>1.5</v>
       </c>
     </row>

--- a/Assets/Resources/CSV.data/WaveStat.xlsx
+++ b/Assets/Resources/CSV.data/WaveStat.xlsx
@@ -21,6 +21,75 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
+    <t>스폰 시간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 웨이브</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 웨이브</t>
+  </si>
+  <si>
+    <t>3 웨이브</t>
+  </si>
+  <si>
+    <t>4 웨이브</t>
+  </si>
+  <si>
+    <t>5 웨이브</t>
+  </si>
+  <si>
+    <t>6 웨이브</t>
+  </si>
+  <si>
+    <t>7 웨이브</t>
+  </si>
+  <si>
+    <t>8 웨이브</t>
+  </si>
+  <si>
+    <t>9 웨이브</t>
+  </si>
+  <si>
+    <t>10 웨이브</t>
+  </si>
+  <si>
+    <t>11 웨이브</t>
+  </si>
+  <si>
+    <t>12 웨이브</t>
+  </si>
+  <si>
+    <t>13 웨이브</t>
+  </si>
+  <si>
+    <t>14 웨이브</t>
+  </si>
+  <si>
+    <t>15 웨이브</t>
+  </si>
+  <si>
+    <t>16 웨이브</t>
+  </si>
+  <si>
+    <t>17 웨이브</t>
+  </si>
+  <si>
+    <t>18 웨이브</t>
+  </si>
+  <si>
+    <t>19 웨이브</t>
+  </si>
+  <si>
+    <t>20 웨이브</t>
+  </si>
+  <si>
+    <t>웨이브</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>최대 몬스터 스폰 수</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -35,75 +104,6 @@
   <si>
     <t>웨이브 당 나무 스탯</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>스폰 시간</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>웨이브</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 웨이브</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 웨이브</t>
-  </si>
-  <si>
-    <t>3 웨이브</t>
-  </si>
-  <si>
-    <t>4 웨이브</t>
-  </si>
-  <si>
-    <t>5 웨이브</t>
-  </si>
-  <si>
-    <t>6 웨이브</t>
-  </si>
-  <si>
-    <t>7 웨이브</t>
-  </si>
-  <si>
-    <t>8 웨이브</t>
-  </si>
-  <si>
-    <t>9 웨이브</t>
-  </si>
-  <si>
-    <t>10 웨이브</t>
-  </si>
-  <si>
-    <t>11 웨이브</t>
-  </si>
-  <si>
-    <t>12 웨이브</t>
-  </si>
-  <si>
-    <t>13 웨이브</t>
-  </si>
-  <si>
-    <t>14 웨이브</t>
-  </si>
-  <si>
-    <t>15 웨이브</t>
-  </si>
-  <si>
-    <t>16 웨이브</t>
-  </si>
-  <si>
-    <t>17 웨이브</t>
-  </si>
-  <si>
-    <t>18 웨이브</t>
-  </si>
-  <si>
-    <t>19 웨이브</t>
-  </si>
-  <si>
-    <t>20 웨이브</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1061,27 +1061,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>100</v>
@@ -1090,10 +1090,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>0.85</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E2" s="2">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>1.5</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>100</v>
@@ -1110,10 +1110,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0.85</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E3" s="2">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
         <v>1.5</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>100</v>
@@ -1130,10 +1130,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E4" s="2">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2">
         <v>1.5</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>100</v>
@@ -1150,10 +1150,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E5" s="2">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2">
         <v>1.5</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>100</v>
@@ -1170,10 +1170,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E6" s="2">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2">
         <v>1.5</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>100</v>
@@ -1190,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E7" s="2">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2">
         <v>1.5</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>100</v>
@@ -1210,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E8" s="2">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2">
         <v>1.5</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>100</v>
@@ -1230,10 +1230,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E9" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2">
         <v>1.5</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>100</v>
@@ -1250,10 +1250,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E10" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2">
         <v>1.5</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>100</v>
@@ -1270,10 +1270,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E11" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2">
         <v>1.5</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>100</v>
@@ -1290,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E12" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2">
         <v>1.5</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>100</v>
@@ -1310,10 +1310,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2">
         <v>1.5</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>100</v>
@@ -1330,10 +1330,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E14" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2">
         <v>1.5</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>100</v>
@@ -1350,10 +1350,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E15" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2">
         <v>1.5</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>100</v>
@@ -1370,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E16" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F16" s="2">
         <v>1.5</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>100</v>
@@ -1390,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E17" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2">
         <v>1.5</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>100</v>
@@ -1410,10 +1410,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E18" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2">
         <v>1.5</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>100</v>
@@ -1430,10 +1430,10 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E19" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2">
         <v>1.5</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>100</v>
@@ -1450,10 +1450,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E20" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2">
         <v>1.5</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>100</v>
@@ -1470,10 +1470,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E21" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F21" s="2">
         <v>1.5</v>

--- a/Assets/Resources/CSV.data/WaveStat.xlsx
+++ b/Assets/Resources/CSV.data/WaveStat.xlsx
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>20</v>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
         <v>25</v>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>30</v>
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>35</v>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <v>40</v>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
         <v>45</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
         <v>50</v>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <v>55</v>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
         <v>60</v>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
         <v>60</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
         <v>60</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
         <v>60</v>
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
         <v>60</v>
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
         <v>60</v>
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
         <v>60</v>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
         <v>60</v>
@@ -1410,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2">
         <v>60</v>
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <v>60</v>
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
         <v>60</v>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2">
         <v>90</v>
